--- a/submission_file.xlsx
+++ b/submission_file.xlsx
@@ -442,2002 +442,2002 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>137.6417846679688</v>
+        <v>176.3410797119141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>150.2981567382812</v>
+        <v>203.6275329589844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>188.9419250488281</v>
+        <v>228.4111633300781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>188.0575256347656</v>
+        <v>122.6613540649414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>92.87083435058594</v>
+        <v>96.17562866210938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>162.5648498535156</v>
+        <v>199.9497985839844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92.37725067138672</v>
+        <v>81.19210815429688</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>153.5751647949219</v>
+        <v>141.1351928710938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>124.8514556884766</v>
+        <v>131.8868408203125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>158.4924163818359</v>
+        <v>150.6763610839844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>171.717529296875</v>
+        <v>196.7438507080078</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>177.0310668945312</v>
+        <v>214.5822448730469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>48.57126617431641</v>
+        <v>66.12760925292969</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>102.2697143554688</v>
+        <v>108.6377792358398</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>268.4707946777344</v>
+        <v>279.9597778320312</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>150.1553955078125</v>
+        <v>167.4779663085938</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>57.70596313476562</v>
+        <v>68.85500335693359</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>100.7887573242188</v>
+        <v>152.1875305175781</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>80.6180419921875</v>
+        <v>90.37400817871094</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>196.7667388916016</v>
+        <v>246.8317718505859</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>55.0195198059082</v>
+        <v>76.27996826171875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>174.7013854980469</v>
+        <v>183.9077606201172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>179.0558471679688</v>
+        <v>201.8426818847656</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>256.9473266601562</v>
+        <v>254.3824157714844</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>317.4082946777344</v>
+        <v>353.2602233886719</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>67.69337463378906</v>
+        <v>86.77248382568359</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>179.9320373535156</v>
+        <v>212.8313598632812</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>306.0259399414062</v>
+        <v>294.178955078125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>237.7934112548828</v>
+        <v>246.0299377441406</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>215.4626159667969</v>
+        <v>242.3022766113281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>209.7746429443359</v>
+        <v>230.8174743652344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>137.6401214599609</v>
+        <v>125.5314636230469</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>149.1241760253906</v>
+        <v>158.6494293212891</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>106.8231353759766</v>
+        <v>133.5335845947266</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>120.9253311157227</v>
+        <v>106.6475296020508</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>275.1446838378906</v>
+        <v>282.655029296875</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131.4748840332031</v>
+        <v>118.2336120605469</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>239.0899353027344</v>
+        <v>235.6047210693359</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>287.3390808105469</v>
+        <v>265.2965393066406</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>201.0090789794922</v>
+        <v>223.7177734375</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251.9328308105469</v>
+        <v>265.6863708496094</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>242.70703125</v>
+        <v>371.6604309082031</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>343.9761352539062</v>
+        <v>327.7116394042969</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>379.7635498046875</v>
+        <v>364.1413879394531</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>287.9230651855469</v>
+        <v>301.9450073242188</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>310.2158813476562</v>
+        <v>525.8839111328125</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>438.6444396972656</v>
+        <v>305.4920654296875</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>324.5157165527344</v>
+        <v>314.1070556640625</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>242.3555145263672</v>
+        <v>251.7151794433594</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>345.5806274414062</v>
+        <v>339.0257263183594</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>247.0033721923828</v>
+        <v>239.7547912597656</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>286.7851867675781</v>
+        <v>279.6889038085938</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>520.9288330078125</v>
+        <v>434.1078491210938</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>179.9262390136719</v>
+        <v>214.236328125</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>337.5968322753906</v>
+        <v>322.5556945800781</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>460.1062622070312</v>
+        <v>398.494140625</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>136.5290832519531</v>
+        <v>126.8674926757812</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>282.7610778808594</v>
+        <v>268.5213012695312</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>456.5226135253906</v>
+        <v>545.1371459960938</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>143.0110778808594</v>
+        <v>127.5342025756836</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>362.6502075195312</v>
+        <v>329.480224609375</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>128.7440490722656</v>
+        <v>121.134033203125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>360.9769592285156</v>
+        <v>371.71044921875</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>247.7771453857422</v>
+        <v>250.2483825683594</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>234.6319274902344</v>
+        <v>232.649658203125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>389.8440551757812</v>
+        <v>386.4400329589844</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>377.0156555175781</v>
+        <v>356.3348999023438</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>354.910400390625</v>
+        <v>319.9837646484375</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>123.843635559082</v>
+        <v>116.3187713623047</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>129.2341613769531</v>
+        <v>115.7936401367188</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>289.9645080566406</v>
+        <v>293.5452270507812</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>312.2305908203125</v>
+        <v>241.9471740722656</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>282.6690368652344</v>
+        <v>264.7696533203125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>120.6549606323242</v>
+        <v>125.5813293457031</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>181.451416015625</v>
+        <v>185.0881042480469</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>370.9648132324219</v>
+        <v>426.8681640625</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>354.2960510253906</v>
+        <v>315.3429565429688</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>323.9789123535156</v>
+        <v>369.4141540527344</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>358.4709167480469</v>
+        <v>338.4148254394531</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>286.3494567871094</v>
+        <v>294.0924072265625</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>359.1242980957031</v>
+        <v>424.7742919921875</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>87.96340942382812</v>
+        <v>105.9538726806641</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>81.33210754394531</v>
+        <v>102.6397171020508</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>381.2970275878906</v>
+        <v>372.705810546875</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>306.9533081054688</v>
+        <v>323.109375</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>302.8644409179688</v>
+        <v>424.7657470703125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>281.3255615234375</v>
+        <v>288.14501953125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>495.7820434570312</v>
+        <v>325.8380432128906</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>137.8799591064453</v>
+        <v>122.5475769042969</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>138.9671173095703</v>
+        <v>124.6358489990234</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>491.3001098632812</v>
+        <v>408.8003845214844</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>497.0980529785156</v>
+        <v>403.5995788574219</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>421.65966796875</v>
+        <v>404.985107421875</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>487.4849548339844</v>
+        <v>398.7225036621094</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>498.745849609375</v>
+        <v>422.0676574707031</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>333.3477783203125</v>
+        <v>320.8487243652344</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>302.2503662109375</v>
+        <v>324.2465209960938</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>407.5813903808594</v>
+        <v>414.4553527832031</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>307.7466430664062</v>
+        <v>208.8865814208984</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>133.3110961914062</v>
+        <v>118.3868255615234</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>131.268310546875</v>
+        <v>117.4878082275391</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>479.2964477539062</v>
+        <v>426.22802734375</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>329.3520202636719</v>
+        <v>183.2852935791016</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>400.6636962890625</v>
+        <v>399.078125</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>556.7161865234375</v>
+        <v>368.3164672851562</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>565.3368530273438</v>
+        <v>381.7978820800781</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>494.5360412597656</v>
+        <v>463.7482299804688</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>130.6842803955078</v>
+        <v>124.2285079956055</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>401.1968078613281</v>
+        <v>422.056884765625</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>281.5961608886719</v>
+        <v>284.3789672851562</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>347.1376953125</v>
+        <v>327.8906555175781</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>526.5270385742188</v>
+        <v>596.8419189453125</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>531.16845703125</v>
+        <v>506.6757202148438</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>589.4348754882812</v>
+        <v>531.02978515625</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>292.444580078125</v>
+        <v>250.8070373535156</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>300.7527465820312</v>
+        <v>238.7226257324219</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>288.3980407714844</v>
+        <v>324.1421203613281</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>305.7436828613281</v>
+        <v>315.5238037109375</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>313.0015258789062</v>
+        <v>279.7195129394531</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>266.909912109375</v>
+        <v>275.6842651367188</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>331.9291381835938</v>
+        <v>314.0972900390625</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>371.0111999511719</v>
+        <v>352.7672729492188</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>374.9272766113281</v>
+        <v>330.4382629394531</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>233.6565704345703</v>
+        <v>221.1073455810547</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>351.2889099121094</v>
+        <v>324.1526489257812</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>70.06362152099609</v>
+        <v>97.62799072265625</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>230.4038391113281</v>
+        <v>220.1030883789062</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>435.4114685058594</v>
+        <v>372.8029174804688</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>399.7439880371094</v>
+        <v>369.8496704101562</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>225.3508148193359</v>
+        <v>221.1456146240234</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>230.8618774414062</v>
+        <v>224.0374755859375</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>198.9188690185547</v>
+        <v>266.4861145019531</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>189.4224090576172</v>
+        <v>206.2922973632812</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>465.2564086914062</v>
+        <v>401.4474182128906</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>479.8102111816406</v>
+        <v>427.3867492675781</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>405.563232421875</v>
+        <v>381.6893310546875</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>228.0285797119141</v>
+        <v>219.6325988769531</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>217.9395751953125</v>
+        <v>216.4894104003906</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>361.5437316894531</v>
+        <v>347.2604675292969</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>145.8290710449219</v>
+        <v>125.7933959960938</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>389.247314453125</v>
+        <v>386.4244079589844</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>447.2540588378906</v>
+        <v>963.9053955078125</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>444.4642333984375</v>
+        <v>578.7896728515625</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>279.2769470214844</v>
+        <v>301.7792663574219</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>370.495361328125</v>
+        <v>339.3760375976562</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>491.6626892089844</v>
+        <v>439.549072265625</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>109.1164245605469</v>
+        <v>111.6524047851562</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>398.3179931640625</v>
+        <v>701.94580078125</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>300.8294372558594</v>
+        <v>372.1843872070312</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>361.9475402832031</v>
+        <v>395.8005981445312</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>398.9383544921875</v>
+        <v>366.0120239257812</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>388.4220275878906</v>
+        <v>352.7030029296875</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>326.8133239746094</v>
+        <v>390.9959106445312</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>264.4610290527344</v>
+        <v>192.6276550292969</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>266.6837463378906</v>
+        <v>194.7342224121094</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>345.7293395996094</v>
+        <v>279.1488952636719</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>374.36767578125</v>
+        <v>307.7903442382812</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>350.0126953125</v>
+        <v>284.1051940917969</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>347.378662109375</v>
+        <v>256.4818115234375</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>171.1030578613281</v>
+        <v>90.21843719482422</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>167.0613098144531</v>
+        <v>84.82670593261719</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>169.7529296875</v>
+        <v>89.93073272705078</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>178.9375610351562</v>
+        <v>90.2103271484375</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>66.19502258300781</v>
+        <v>80.70984649658203</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>57.79644012451172</v>
+        <v>61.36765670776367</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>49.87155151367188</v>
+        <v>70.69965362548828</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>55.32142639160156</v>
+        <v>67.48509216308594</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>84.27798461914062</v>
+        <v>79.73243713378906</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>45.39562606811523</v>
+        <v>67.7828369140625</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>82.11279296875</v>
+        <v>74.00809478759766</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>47.89827728271484</v>
+        <v>64.40741729736328</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>48.19589996337891</v>
+        <v>64.50553131103516</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>89.09342956542969</v>
+        <v>91.83148193359375</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>49.68282318115234</v>
+        <v>70.02099609375</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>91.87188720703125</v>
+        <v>82.38433837890625</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>64.17796325683594</v>
+        <v>82.13885498046875</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>68.32978057861328</v>
+        <v>61.2158088684082</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>60.62082672119141</v>
+        <v>59.37897491455078</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>56.9254150390625</v>
+        <v>72.15022277832031</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>81.74908447265625</v>
+        <v>85.59913635253906</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>66.54295349121094</v>
+        <v>74.99919128417969</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>53.48029708862305</v>
+        <v>71.26779937744141</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>57.00690841674805</v>
+        <v>68.30947875976562</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>60.63837814331055</v>
+        <v>72.17945861816406</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>66.3251953125</v>
+        <v>72.17316436767578</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>50.99645233154297</v>
+        <v>71.29105377197266</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>70.28993988037109</v>
+        <v>75.54866790771484</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>83.73574829101562</v>
+        <v>105.4007873535156</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>108.4055557250977</v>
+        <v>118.8742828369141</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>78.88491058349609</v>
+        <v>95.75570678710938</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>49.27758026123047</v>
+        <v>69.41929626464844</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>61.3861083984375</v>
+        <v>75.25878143310547</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>50.73163604736328</v>
+        <v>70.86893463134766</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>75.74581146240234</v>
+        <v>97.928955078125</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>68.41409301757812</v>
+        <v>76.32077789306641</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>143.4747924804688</v>
+        <v>115.6048583984375</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>116.5572814941406</v>
+        <v>111.5652542114258</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>111.2764587402344</v>
+        <v>106.6772308349609</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>90.36766052246094</v>
+        <v>80.01714324951172</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>113.8927993774414</v>
+        <v>111.4657516479492</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>120.2945938110352</v>
+        <v>112.8331604003906</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>90.45759582519531</v>
+        <v>80.45179748535156</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>89.86262512207031</v>
+        <v>102.2687149047852</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>121.2177047729492</v>
+        <v>106.253288269043</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>99.17238616943359</v>
+        <v>85.9747314453125</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>72.87711334228516</v>
+        <v>93.09129333496094</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>57.62035751342773</v>
+        <v>71.99687194824219</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>55.40064239501953</v>
+        <v>69.37175750732422</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>51.906005859375</v>
+        <v>66.99246215820312</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>52.53408432006836</v>
+        <v>65.848876953125</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>51.61531066894531</v>
+        <v>65.19010925292969</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>63.52574920654297</v>
+        <v>64.04248046875</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>52.04228973388672</v>
+        <v>69.54179382324219</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>92.95737457275391</v>
+        <v>104.2423858642578</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>76.47930908203125</v>
+        <v>96.92317962646484</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>88.8345947265625</v>
+        <v>90.33473968505859</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>55.36543273925781</v>
+        <v>72.10617065429688</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>77.32938385009766</v>
+        <v>59.89620971679688</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>107.9697418212891</v>
+        <v>101.9782333374023</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>102.0514068603516</v>
+        <v>75.28123474121094</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>79.141845703125</v>
+        <v>92.07563018798828</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>60.74370193481445</v>
+        <v>75.19108581542969</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>60.97701644897461</v>
+        <v>74.80928039550781</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>70.42131042480469</v>
+        <v>77.94312286376953</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>66.79701232910156</v>
+        <v>77.00364685058594</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>112.7977676391602</v>
+        <v>92.91023254394531</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>62.57342910766602</v>
+        <v>74.38136291503906</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>78.58103942871094</v>
+        <v>92.24585723876953</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>128.4560852050781</v>
+        <v>105.1629104614258</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>61.09063339233398</v>
+        <v>74.74929809570312</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>69.17942810058594</v>
+        <v>78.09337615966797</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>127.6061172485352</v>
+        <v>101.4344787597656</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>50.60443115234375</v>
+        <v>85.51824188232422</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>74.21343231201172</v>
+        <v>60.73119735717773</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>57.5187873840332</v>
+        <v>70.00002288818359</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>66.47361755371094</v>
+        <v>73.84386444091797</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>70.99432373046875</v>
+        <v>77.95405578613281</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>56.21346664428711</v>
+        <v>61.14691543579102</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>58.20501708984375</v>
+        <v>65.44685363769531</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>57.61522674560547</v>
+        <v>60.68094635009766</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>84.26752471923828</v>
+        <v>68.75288391113281</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>83.27469635009766</v>
+        <v>64.91481018066406</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>59.85282897949219</v>
+        <v>71.02288055419922</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>95.10546112060547</v>
+        <v>90.91587829589844</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>94.36225128173828</v>
+        <v>84.89808654785156</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>74.8563232421875</v>
+        <v>62.19472122192383</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>64.53469848632812</v>
+        <v>75.71882629394531</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>57.94451522827148</v>
+        <v>68.62741088867188</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>99.04668426513672</v>
+        <v>73.47653961181641</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>66.09944152832031</v>
+        <v>79.06704711914062</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>52.47933578491211</v>
+        <v>68.54644775390625</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>83.45491790771484</v>
+        <v>91.01548767089844</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>88.94691467285156</v>
+        <v>92.2598876953125</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>64.66461944580078</v>
+        <v>76.38990783691406</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>67.62275695800781</v>
+        <v>73.15887451171875</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>118.3643188476562</v>
+        <v>103.9999694824219</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>49.69449615478516</v>
+        <v>67.66783142089844</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>57.94377899169922</v>
+        <v>72.23529815673828</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>61.59787750244141</v>
+        <v>71.95233154296875</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>66.31135559082031</v>
+        <v>73.91921997070312</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>60.04121398925781</v>
+        <v>65.15200805664062</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>62.49007797241211</v>
+        <v>77.92312622070312</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>66.404052734375</v>
+        <v>83.77755737304688</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>151.3900756835938</v>
+        <v>112.5164642333984</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>66.19289398193359</v>
+        <v>77.92929840087891</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>65.36849975585938</v>
+        <v>71.20677947998047</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>123.7001571655273</v>
+        <v>108.7444839477539</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>56.74953079223633</v>
+        <v>65.02180480957031</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>56.03462219238281</v>
+        <v>63.19948959350586</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>127.6668395996094</v>
+        <v>107.3422012329102</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>104.5655517578125</v>
+        <v>98.394775390625</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>127.5398559570312</v>
+        <v>109.7816925048828</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>124.4437484741211</v>
+        <v>107.5701599121094</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>96.44553375244141</v>
+        <v>89.84455871582031</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>52.2806396484375</v>
+        <v>71.11602783203125</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>134.5389709472656</v>
+        <v>91.37188720703125</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>100.5353164672852</v>
+        <v>91.70745849609375</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>80.88390350341797</v>
+        <v>74.5467529296875</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>101.9990081787109</v>
+        <v>83.29398345947266</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>51.73977279663086</v>
+        <v>59.82054138183594</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>55.14670181274414</v>
+        <v>69.80954742431641</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>52.03187561035156</v>
+        <v>69.54022216796875</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>52.51802825927734</v>
+        <v>56.22178649902344</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>67.91522216796875</v>
+        <v>61.57997131347656</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>83.73922729492188</v>
+        <v>83.99308776855469</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>56.33930969238281</v>
+        <v>57.06658172607422</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>59.78601837158203</v>
+        <v>73.95814514160156</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>53.32046127319336</v>
+        <v>69.22743225097656</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>91.56773376464844</v>
+        <v>97.40086364746094</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>71.54046630859375</v>
+        <v>84.48326110839844</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>85.29147338867188</v>
+        <v>96.7781982421875</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>53.62081527709961</v>
+        <v>69.79180145263672</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>52.97687911987305</v>
+        <v>70.70824432373047</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>73.41669464111328</v>
+        <v>82.26670837402344</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>86.34396362304688</v>
+        <v>80.20877075195312</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>65.80479431152344</v>
+        <v>57.47665023803711</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>98.08335876464844</v>
+        <v>102.223747253418</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>115.9922561645508</v>
+        <v>112.7372894287109</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>71.85923004150391</v>
+        <v>86.28194427490234</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>69.67559051513672</v>
+        <v>79.42152404785156</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>80.89817810058594</v>
+        <v>87.22340393066406</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>57.63788604736328</v>
+        <v>79.25668334960938</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>131.5379943847656</v>
+        <v>107.9239349365234</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>86.33786010742188</v>
+        <v>73.27682495117188</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>63.87403869628906</v>
+        <v>79.32528686523438</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>60.6273193359375</v>
+        <v>75.71232604980469</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>99.82505035400391</v>
+        <v>108.2126922607422</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>132.2656555175781</v>
+        <v>107.9942398071289</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>122.8992919921875</v>
+        <v>113.326530456543</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>75.54122924804688</v>
+        <v>83.46656036376953</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>106.0993957519531</v>
+        <v>117.853271484375</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>144.4954681396484</v>
+        <v>105.5547180175781</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>101.6798248291016</v>
+        <v>106.8283843994141</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>153.1567840576172</v>
+        <v>111.2750091552734</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>101.5883407592773</v>
+        <v>98.73274230957031</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>132.4331207275391</v>
+        <v>108.1698760986328</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>121.0258636474609</v>
+        <v>102.0966491699219</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>63.06859970092773</v>
+        <v>72.78315734863281</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>106.4084014892578</v>
+        <v>95.50136566162109</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>109.7741012573242</v>
+        <v>114.9460067749023</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>133.0218811035156</v>
+        <v>107.4423828125</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>108.5652770996094</v>
+        <v>105.9629211425781</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>60.70086669921875</v>
+        <v>76.95187377929688</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>108.2125549316406</v>
+        <v>87.15130615234375</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>89.49813842773438</v>
+        <v>84.66853332519531</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>64.81686401367188</v>
+        <v>79.39857482910156</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>59.15023803710938</v>
+        <v>76.32720947265625</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>61.0763053894043</v>
+        <v>77.02266693115234</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>105.7919158935547</v>
+        <v>112.8545227050781</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>122.9290466308594</v>
+        <v>110.6661834716797</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>108.9700622558594</v>
+        <v>95.88661193847656</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>50.43772888183594</v>
+        <v>64.90227508544922</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>105.7094573974609</v>
+        <v>112.3297424316406</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>75.47450256347656</v>
+        <v>82.94720458984375</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>70.19619750976562</v>
+        <v>74.92472076416016</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>68.45402526855469</v>
+        <v>74.70863342285156</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>128.8843994140625</v>
+        <v>114.8845443725586</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>113.4618835449219</v>
+        <v>122.8553924560547</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>63.98399353027344</v>
+        <v>80.79524230957031</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>64.43797302246094</v>
+        <v>71.50337219238281</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>62.323974609375</v>
+        <v>74.18353271484375</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>109.1120681762695</v>
+        <v>113.3579559326172</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>70.46982574462891</v>
+        <v>86.60457611083984</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>61.92647552490234</v>
+        <v>76.69654846191406</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>131.1404113769531</v>
+        <v>105.8815765380859</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>64.49726867675781</v>
+        <v>79.06036376953125</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>80.2655029296875</v>
+        <v>80.01649475097656</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>105.8301544189453</v>
+        <v>112.1212158203125</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>81.753662109375</v>
+        <v>105.5391693115234</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>64.93417358398438</v>
+        <v>74.2239990234375</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>63.37445831298828</v>
+        <v>77.19698333740234</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>64.24702453613281</v>
+        <v>76.52049255371094</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>60.9952392578125</v>
+        <v>75.30201721191406</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>77.33827972412109</v>
+        <v>83.23067474365234</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>74.07894897460938</v>
+        <v>86.29965209960938</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>95.64963531494141</v>
+        <v>96.77154541015625</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>69.84515380859375</v>
+        <v>73.13865661621094</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>96.75321960449219</v>
+        <v>111.2653350830078</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>85.68112945556641</v>
+        <v>82.98393249511719</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>84.65987396240234</v>
+        <v>96.91521453857422</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>91.44461059570312</v>
+        <v>100.7073059082031</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>61.85282135009766</v>
+        <v>71.88304138183594</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>96.51870727539062</v>
+        <v>105.6164398193359</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>61.90130233764648</v>
+        <v>71.95576477050781</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>61.77156066894531</v>
+        <v>92.64901733398438</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>63.45675659179688</v>
+        <v>72.66797637939453</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>52.25469207763672</v>
+        <v>63.97300720214844</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>80.11054992675781</v>
+        <v>72.67638397216797</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>61.68278503417969</v>
+        <v>72.32946014404297</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>65.58072662353516</v>
+        <v>79.4112548828125</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>116.6968841552734</v>
+        <v>117.8327255249023</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>113.2334442138672</v>
+        <v>116.0774688720703</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>67.39080810546875</v>
+        <v>70.686767578125</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>63.45674133300781</v>
+        <v>72.84689331054688</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>55.83895111083984</v>
+        <v>69.44695281982422</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>117.1872863769531</v>
+        <v>100.5562286376953</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>117.455322265625</v>
+        <v>106.0921783447266</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>95.82072448730469</v>
+        <v>110.1939010620117</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>105.0384674072266</v>
+        <v>106.5487060546875</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>78.82910919189453</v>
+        <v>80.87126159667969</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>64.83235168457031</v>
+        <v>74.99759674072266</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>67.40251922607422</v>
+        <v>83.30690002441406</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>66.07772827148438</v>
+        <v>70.76314544677734</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>110.593505859375</v>
+        <v>113.4187469482422</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>107.6675186157227</v>
+        <v>110.6464309692383</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>91.68806457519531</v>
+        <v>107.9148712158203</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>63.45221328735352</v>
+        <v>78.58433532714844</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>75.95295715332031</v>
+        <v>79.70034790039062</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>89.41592407226562</v>
+        <v>89.74429321289062</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>109.9232177734375</v>
+        <v>86.09848785400391</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>99.01716613769531</v>
+        <v>78.41506958007812</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>89.94477844238281</v>
+        <v>108.3839645385742</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>122.0939025878906</v>
+        <v>108.1417083740234</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>80.9053955078125</v>
+        <v>78.98004150390625</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>136.2286987304688</v>
+        <v>106.5905151367188</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>129.9823608398438</v>
+        <v>104.5942993164062</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>95.31865692138672</v>
+        <v>69.25837707519531</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>121.3336334228516</v>
+        <v>84.89537811279297</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>96.48583221435547</v>
+        <v>82.22930908203125</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>74.91931915283203</v>
+        <v>69.27643585205078</v>
       </c>
     </row>
   </sheetData>
